--- a/data/trans_orig/APOYO_SOCIAL_DUKE_CONT-Clase-trans_orig.xlsx
+++ b/data/trans_orig/APOYO_SOCIAL_DUKE_CONT-Clase-trans_orig.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Apoyo social global - escala</t>
+          <t>Apoyo social global - escala (tasa de respuesta: 97,84%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/APOYO_SOCIAL_DUKE_CONT-Clase-trans_orig.xlsx
+++ b/data/trans_orig/APOYO_SOCIAL_DUKE_CONT-Clase-trans_orig.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>47,2</t>
+          <t>47,68</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>47,93</t>
+          <t>47,98</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>47,57</t>
+          <t>47,83</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>46,25; 47,94</t>
+          <t>46,72; 48,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>48,45; 50,09</t>
+          <t>48,54; 50,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>47,23; 48,5</t>
+          <t>47,31; 48,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>49,88; 51,02</t>
+          <t>49,86; 51,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>47,0; 48,06</t>
+          <t>47,3; 48,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>49,38; 50,41</t>
+          <t>49,32; 50,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>46,87</t>
+          <t>46,74</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>47,67</t>
+          <t>47,58</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>47,34</t>
+          <t>47,19</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -795,12 +795,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>45,6; 47,89</t>
+          <t>45,26; 47,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>47,39; 49,07</t>
+          <t>47,43; 49,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>46,97; 48,48</t>
+          <t>46,56; 48,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>48,03; 49,53</t>
+          <t>48,15; 49,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>46,63; 47,95</t>
+          <t>46,4; 47,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>47,9; 49,04</t>
+          <t>47,91; 49,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>46,85</t>
+          <t>46,58</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>46,76</t>
+          <t>46,57</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -905,12 +905,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>45,97; 47,64</t>
+          <t>45,59; 47,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>46,83; 53,85</t>
+          <t>46,84; 53,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>45,22; 47,77</t>
+          <t>44,91; 47,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,58; 49,22</t>
+          <t>46,57; 49,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,12 +935,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>46,02; 47,39</t>
+          <t>45,68; 47,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>47,19; 53,5</t>
+          <t>47,13; 53,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>47,01</t>
+          <t>46,98</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>45,85</t>
+          <t>45,59</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>46,4</t>
+          <t>46,27</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>46,31; 47,67</t>
+          <t>46,2; 47,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>46,61; 48,06</t>
+          <t>46,56; 48,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,12 +1030,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>45,0; 46,62</t>
+          <t>44,52; 46,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>47,32; 48,59</t>
+          <t>47,34; 48,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>45,88; 46,96</t>
+          <t>45,56; 46,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>47,12; 48,12</t>
+          <t>47,06; 48,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>45,68</t>
+          <t>45,17</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>44,24</t>
+          <t>44,29</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>44,72</t>
+          <t>44,62</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1125,12 +1125,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>44,38; 46,98</t>
+          <t>43,75; 46,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>45,02; 47,7</t>
+          <t>44,99; 47,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1140,12 +1140,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>43,35; 45,1</t>
+          <t>43,38; 45,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>44,7; 50,26</t>
+          <t>44,79; 50,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1155,12 +1155,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>43,97; 45,39</t>
+          <t>43,78; 45,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>45,31; 49,2</t>
+          <t>45,21; 49,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>48,93</t>
+          <t>48,44</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>47,17</t>
+          <t>47,62</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>47,56</t>
+          <t>47,85</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1235,12 +1235,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>47,35; 50,13</t>
+          <t>46,66; 49,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>49,68; 52,15</t>
+          <t>49,52; 52,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1250,12 +1250,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>46,18; 48,05</t>
+          <t>46,69; 48,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>46,04; 47,54</t>
+          <t>45,99; 47,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1265,12 +1265,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>46,76; 48,27</t>
+          <t>46,97; 48,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>47,2; 48,54</t>
+          <t>47,16; 48,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>46,51</t>
+          <t>46,64</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>46,71</t>
+          <t>46,78</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>46,54; 47,34</t>
+          <t>46,5; 47,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>47,99; 51,07</t>
+          <t>47,98; 51,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1360,12 +1360,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>46,13; 46,87</t>
+          <t>46,2; 47,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>47,48; 48,87</t>
+          <t>47,49; 48,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1375,12 +1375,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>46,45; 46,97</t>
+          <t>46,48; 47,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>47,88; 49,74</t>
+          <t>47,91; 49,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">

--- a/data/trans_orig/APOYO_SOCIAL_DUKE_CONT-Clase-trans_orig.xlsx
+++ b/data/trans_orig/APOYO_SOCIAL_DUKE_CONT-Clase-trans_orig.xlsx
@@ -562,47 +562,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>49,3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>49,51</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>47,68</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>49,4</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>49,51</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>50,22</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>50,43</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>47,98</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>50,51</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>50,43</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>49,72</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>49,96</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>47,83</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>49,9</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>49,96</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>48,48; 50,04</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>48,76; 50,14</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>46,72; 48,49</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>48,54; 50,11</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>48,76; 50,14</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>49,39; 50,82</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>49,87; 50,95</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>47,31; 48,65</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>49,86; 51,09</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>49,87; 50,95</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>49,09; 50,19</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>49,51; 50,4</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>47,3; 48,42</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>49,32; 50,36</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>49,51; 50,4</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>48,15</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>48,23</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>46,74</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>48,26</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>48,23</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>48,87</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>49,32</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>47,58</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>48,85</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>49,32</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>48,48</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>48,82</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>47,19</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>48,52</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>48,82</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>47,33; 48,93</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>47,16; 49,08</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>45,26; 47,85</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>47,43; 49,07</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>47,16; 49,08</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>48,21; 49,58</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>48,57; 49,99</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>46,56; 48,39</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>48,15; 49,59</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>48,57; 49,99</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>47,88; 49,02</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>48,19; 49,39</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>46,4; 47,87</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>47,91; 49,09</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>48,19; 49,39</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>47,18</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>48,73</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>46,58</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>51,2</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>48,73</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>48,0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>49,6</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>46,54</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>47,97</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>49,6</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>47,43</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>49,0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>46,57</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>50,66</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>49,0</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>46,17; 48,2</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>47,74; 49,68</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>45,59; 47,46</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>46,84; 53,88</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>47,74; 49,68</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>46,44; 49,22</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>47,86; 50,75</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>44,91; 47,85</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>46,57; 49,2</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>47,86; 50,75</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>46,56; 48,16</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>48,14; 49,69</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>45,68; 47,39</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>47,13; 53,63</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>48,14; 49,69</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>47,19</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>48,82</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>46,98</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>47,35</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>48,82</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>47,72</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>49,35</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>45,59</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>47,92</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>49,35</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>47,42</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>49,09</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>46,27</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>47,61</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>49,09</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>46,39; 47,91</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>48,07; 49,52</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>46,2; 47,79</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>46,56; 48,09</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>48,07; 49,52</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>47,15; 48,36</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>48,69; 49,97</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>44,52; 46,57</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>47,34; 48,58</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>48,69; 49,97</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>46,94; 47,9</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>48,62; 49,58</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>45,56; 46,88</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>47,06; 48,06</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>48,62; 49,58</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>45,92</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>47,4</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>45,17</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>46,35</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>47,4</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>44,77</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>46,84</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>44,29</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>46,66</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>46,84</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>45,21</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>47,11</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>44,62</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>46,56</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>47,11</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>44,62; 47,19</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>46,14; 48,58</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>43,75; 46,57</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>44,99; 47,75</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>46,14; 48,58</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>43,92; 45,62</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>45,34; 47,8</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>43,38; 45,24</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>44,79; 50,26</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>45,34; 47,8</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>44,43; 45,92</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>46,23; 47,95</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>43,78; 45,33</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>45,21; 49,25</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>46,23; 47,95</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>50,27</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>45,6</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>48,44</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>50,98</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>45,6</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>46,75</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>43,82</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>47,62</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>46,82</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>43,82</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>47,58</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>44,64</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>47,85</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>47,87</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>44,64</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>48,47; 51,5</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>41,76; 49,95</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>46,66; 49,83</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>49,52; 52,07</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>41,76; 49,95</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>45,96; 47,43</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>39,96; 47,52</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>46,69; 48,58</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>45,99; 47,51</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>39,96; 47,52</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>46,87; 48,26</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>42,0; 47,5</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>46,97; 48,68</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>47,16; 48,57</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>42,0; 47,5</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>47,86</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>48,67</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>46,95</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>48,93</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>48,67</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>47,47</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>49,23</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>46,64</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>47,9</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>49,23</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>47,66</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>48,94</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>46,78</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>48,42</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>48,94</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>47,47; 48,24</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>48,29; 49,02</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>46,5; 47,38</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>47,98; 51,07</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>48,29; 49,02</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>47,11; 47,77</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>48,86; 49,57</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>46,2; 47,0</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>47,49; 48,74</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>48,86; 49,57</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>47,37; 47,91</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>48,69; 49,2</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>46,48; 47,05</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>47,91; 49,76</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>48,69; 49,2</t>
         </is>
       </c>
     </row>
